--- a/DATA/Indikator/EDGDP.xlsx
+++ b/DATA/Indikator/EDGDP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROTOTYPE\LLD\DATA\Indikator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B2ED59-6977-4B2B-AABE-808A6EF6BB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7364848-DCC0-463E-9B95-0DDD7B7AD8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>GDP</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Des - 2024</t>
+  </si>
+  <si>
+    <t>EDGDP</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,45 +509,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
         <v>827.63</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>280.83999999999997</v>
